--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>62700</v>
+        <v>37500</v>
       </c>
       <c r="E8" s="3">
+        <v>67500</v>
+      </c>
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -775,38 +778,41 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>37600</v>
+        <v>22600</v>
       </c>
       <c r="E9" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,38 +825,41 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>25100</v>
+        <v>14900</v>
       </c>
       <c r="E10" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,26 +920,29 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +999,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -989,23 +1008,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1013,16 +1032,19 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,82 +1097,86 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>48000</v>
+        <v>33800</v>
       </c>
       <c r="E17" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14700</v>
+        <v>3700</v>
       </c>
       <c r="E18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,37 +1210,38 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1100</v>
+        <v>-1300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>100</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1222,38 +1255,41 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13800</v>
+        <v>2700</v>
       </c>
       <c r="E21" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,11 +1316,11 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1296,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13600</v>
+        <v>2400</v>
       </c>
       <c r="E23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13600</v>
+        <v>2400</v>
       </c>
       <c r="E26" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13600</v>
+        <v>2400</v>
       </c>
       <c r="E27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,37 +1772,40 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
-        <v>-100</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>-100</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13600</v>
+        <v>2400</v>
       </c>
       <c r="E33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13600</v>
+        <v>2400</v>
       </c>
       <c r="E35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,67 +2052,71 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2037,8 +2126,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,26 +2144,29 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E43" s="3">
         <v>54600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2091,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2113,12 +2208,12 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
         <v>7600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2134,8 +2229,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,22 +2250,22 @@
         <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2179,7 +2277,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2187,66 +2285,72 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E46" s="3">
         <v>70200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2000</v>
       </c>
       <c r="H47" s="3">
         <v>2000</v>
@@ -2260,8 +2364,8 @@
       <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>2000</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2275,19 +2379,22 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>3400</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2305,66 +2412,72 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E49" s="3">
         <v>9300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2567,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2486,17 +2605,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E54" s="3">
         <v>81800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>13200</v>
       </c>
       <c r="L54" s="3">
         <v>13200</v>
       </c>
       <c r="M54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="N54" s="3">
         <v>13500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E57" s="3">
         <v>35900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1200</v>
       </c>
       <c r="L57" s="3">
         <v>1200</v>
       </c>
       <c r="M57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2693,39 +2826,42 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>5400</v>
       </c>
       <c r="N58" s="3">
         <v>5400</v>
       </c>
       <c r="O58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="P58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E59" s="3">
         <v>30200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -2737,66 +2873,72 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E60" s="3">
         <v>66100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>42500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>24100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,20 +2981,23 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E66" s="3">
         <v>67200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-90500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-85700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-70300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-68600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-67800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E76" s="3">
         <v>14600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>11700</v>
       </c>
       <c r="K76" s="3">
         <v>11700</v>
       </c>
       <c r="L76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M76" s="3">
         <v>11500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13600</v>
+        <v>2400</v>
       </c>
       <c r="E81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,16 +3825,17 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8600</v>
+        <v>7700</v>
       </c>
       <c r="E89" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-700</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9000</v>
+        <v>2800</v>
       </c>
       <c r="E102" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F8" s="3">
         <v>37500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>67500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,44 +789,50 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F9" s="3">
         <v>22600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>40400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -828,44 +842,50 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F10" s="3">
         <v>14900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>27100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,16 +920,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -923,26 +951,32 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,55 +1042,61 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,91 +1150,99 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33800</v>
+        <v>27100</v>
       </c>
       <c r="E17" s="3">
-        <v>57500</v>
+        <v>26100</v>
       </c>
       <c r="F17" s="3">
-        <v>9300</v>
+        <v>35200</v>
       </c>
       <c r="G17" s="3">
-        <v>8200</v>
+        <v>58800</v>
       </c>
       <c r="H17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3700</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="3">
-        <v>10000</v>
+        <v>-1000</v>
       </c>
       <c r="F18" s="3">
-        <v>-4500</v>
+        <v>2300</v>
       </c>
       <c r="G18" s="3">
-        <v>-6100</v>
+        <v>8700</v>
       </c>
       <c r="H18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,44 +1277,46 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1300</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1400</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,44 +1326,50 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,13 +1379,19 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1319,14 +1399,14 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1338,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>300</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,44 +1909,50 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1300</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>1400</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>700</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,46 +2225,48 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F41" s="3">
         <v>15800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
@@ -2100,28 +2274,34 @@
       <c r="Q41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>500</v>
+      </c>
+      <c r="S41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>700</v>
+      </c>
+      <c r="F42" s="3">
         <v>1400</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>2600</v>
       </c>
       <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2129,11 +2309,11 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2147,32 +2327,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F43" s="3">
         <v>47900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>54600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>24700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>13300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2186,21 +2372,27 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>4</v>
@@ -2211,15 +2403,15 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
         <v>7600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2232,46 +2424,52 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
       </c>
       <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2280,83 +2478,95 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>64200</v>
+      </c>
+      <c r="F46" s="3">
         <v>66000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>70200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>32300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>18800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2900</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>400</v>
+      </c>
+      <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2000</v>
       </c>
       <c r="J47" s="3">
         <v>2000</v>
@@ -2367,11 +2577,11 @@
       <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N47" s="3">
+        <v>2000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2382,26 +2592,32 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2415,69 +2631,81 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E49" s="3">
         <v>16100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G49" s="3">
         <v>9300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>9500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>10000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>10200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>11100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>11300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>11500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,19 +2804,25 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>400</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2596,11 +2836,11 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2608,8 +2848,8 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>86200</v>
+      </c>
+      <c r="F54" s="3">
         <v>86400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>81800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>44300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>23700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F57" s="3">
         <v>37600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>35900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2829,45 +3097,51 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F59" s="3">
         <v>30900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>30200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>35700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>19500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
@@ -2876,69 +3150,81 @@
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>67700</v>
+      </c>
+      <c r="F60" s="3">
         <v>68500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>66100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>42500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>24100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,26 +3270,32 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3013,11 +3305,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>70600</v>
+      </c>
+      <c r="F66" s="3">
         <v>69900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>67200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>24100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-74700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-76900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-90500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-85700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-77900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-70300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-68600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-67800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-67200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-65800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-64600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-63600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-62900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F76" s="3">
         <v>16500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,22 +4222,24 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>9800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,25 +4614,27 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -4200,29 +4642,35 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
-      </c>
-      <c r="O100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1300</v>
       </c>
       <c r="Q100" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-400</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
         <v>28500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>37500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
@@ -795,47 +799,50 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E9" s="3">
         <v>16500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>22600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,47 +855,50 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>12000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,20 +935,21 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -957,26 +971,29 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-3500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1048,8 +1068,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1057,23 +1077,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,13 +1116,13 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,100 +1178,104 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
         <v>27100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,46 +1312,47 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>100</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1332,47 +1366,50 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,16 +1422,19 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1405,11 +1445,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1424,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,46 +1982,49 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>-100</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>-100</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,85 +2313,89 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E41" s="3">
         <v>18900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,35 +2423,38 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E43" s="3">
         <v>35400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2378,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -2386,16 +2479,19 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
@@ -2409,12 +2505,12 @@
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>7600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2430,8 +2526,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2439,16 +2535,19 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
@@ -2457,22 +2556,22 @@
         <v>800</v>
       </c>
       <c r="H45" s="3">
+        <v>800</v>
+      </c>
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2484,7 +2583,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2492,84 +2591,90 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E46" s="3">
         <v>55100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>64200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>66000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>70200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>32300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E47" s="3">
         <v>4100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2000</v>
       </c>
       <c r="K47" s="3">
         <v>2000</v>
@@ -2583,8 +2688,8 @@
       <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>2000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2598,28 +2703,31 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>1800</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2637,75 +2745,81 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E49" s="3">
         <v>15700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>16100</v>
       </c>
       <c r="F49" s="3">
         <v>16100</v>
       </c>
       <c r="G49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H49" s="3">
         <v>9300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2824,8 +2944,8 @@
       <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2854,17 +2974,20 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E54" s="3">
         <v>78300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>86200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>86400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>81800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>13200</v>
       </c>
       <c r="O54" s="3">
         <v>13200</v>
       </c>
       <c r="P54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>13500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E57" s="3">
         <v>35900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1200</v>
       </c>
       <c r="O57" s="3">
         <v>1200</v>
       </c>
       <c r="P57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3103,48 +3237,51 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>5400</v>
       </c>
       <c r="Q58" s="3">
         <v>5400</v>
       </c>
       <c r="R58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="S58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E59" s="3">
         <v>21000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3156,75 +3293,81 @@
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E60" s="3">
         <v>56900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>68500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>42500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>24100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,29 +3419,32 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E66" s="3">
         <v>61300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>69900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>67200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-75300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-63600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E76" s="3">
         <v>17100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>11700</v>
       </c>
       <c r="N76" s="3">
         <v>11700</v>
       </c>
       <c r="O76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P76" s="3">
         <v>11500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,13 +4435,13 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-700</v>
       </c>
       <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,17 +4849,17 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4648,29 +4869,32 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,49 +5017,52 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-300</v>
       </c>
       <c r="F101" s="3">
         <v>-300</v>
       </c>
       <c r="G101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,134 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>28500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>37500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>67500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
@@ -802,50 +805,53 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
         <v>5400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,50 +864,53 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>27100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,23 +948,24 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -974,26 +987,29 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,17 +1064,20 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1071,8 +1090,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1080,23 +1099,23 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,13 +1141,13 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,106 +1204,110 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,49 +1345,50 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>100</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
@@ -1369,50 +1402,53 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,19 +1461,22 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1448,11 +1487,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1467,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1481,64 +1520,70 @@
       <c r="T22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,49 +2051,52 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>-100</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>-100</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,91 +2399,95 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
         <v>15400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>500</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2408,8 +2497,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2426,38 +2515,41 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E43" s="3">
         <v>30900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2474,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -2482,19 +2574,22 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>100</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2508,12 +2603,12 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>7600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2624,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2538,19 +2633,22 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>800</v>
@@ -2559,22 +2657,22 @@
         <v>800</v>
       </c>
       <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2586,7 +2684,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2594,90 +2692,96 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E46" s="3">
         <v>47200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>55100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>64200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>66000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>70200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>3900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>800</v>
-      </c>
-      <c r="K47" s="3">
-        <v>2000</v>
       </c>
       <c r="L47" s="3">
         <v>2000</v>
@@ -2691,8 +2795,8 @@
       <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>2000</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2706,31 +2810,34 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1800</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2748,78 +2855,84 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E49" s="3">
         <v>15300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>16100</v>
       </c>
       <c r="G49" s="3">
         <v>16100</v>
       </c>
       <c r="H49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="I49" s="3">
         <v>9300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2947,8 +3066,8 @@
       <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -2965,8 +3084,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2977,17 +3096,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E54" s="3">
         <v>69500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>78300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>86200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>86400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>81800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13000</v>
-      </c>
-      <c r="O54" s="3">
-        <v>13200</v>
       </c>
       <c r="P54" s="3">
         <v>13200</v>
       </c>
       <c r="Q54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="R54" s="3">
         <v>13500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,69 +3271,73 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>28700</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>35900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1200</v>
       </c>
       <c r="P57" s="3">
         <v>1200</v>
       </c>
       <c r="Q57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3240,51 +3373,54 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>5400</v>
       </c>
       <c r="R58" s="3">
         <v>5400</v>
       </c>
       <c r="S58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="T58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18000</v>
+        <v>45900</v>
       </c>
       <c r="E59" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F59" s="3">
         <v>21000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3296,78 +3432,84 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E60" s="3">
         <v>46700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>67700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>68500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>42500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>24100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,32 +3564,35 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E66" s="3">
         <v>50700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>61300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>69900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>67200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-73800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-75300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-90500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-85700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-70300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-67200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-65800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-64600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-63600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-62900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E76" s="3">
         <v>18800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>11700</v>
       </c>
       <c r="O76" s="3">
         <v>11700</v>
       </c>
       <c r="P76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>11500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,13 +4636,13 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-700</v>
       </c>
       <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4852,17 +5072,17 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4872,29 +5092,32 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5231,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5020,49 +5249,52 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,107 +5620,113 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-300</v>
       </c>
       <c r="G101" s="3">
         <v>-300</v>
       </c>
       <c r="H101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,148 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>28500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>25100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>37500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>67500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
@@ -808,56 +816,62 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>15500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>22600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>40400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -867,56 +881,62 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>12000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>14900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>27100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,20 +986,20 @@
         <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,26 +1018,32 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,23 +1101,29 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,41 +1133,47 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1181,7 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1144,16 +1190,16 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>200</v>
+      </c>
+      <c r="W15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,115 +1257,123 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>27100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>26100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>35200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>58800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1323,8 +1383,14 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,19 +1412,21 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
@@ -1367,35 +1435,35 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1405,56 +1473,62 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1464,25 +1538,31 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1490,14 +1570,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1509,13 +1589,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
@@ -1523,67 +1603,79 @@
       <c r="U22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>8600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>8600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,19 +2188,25 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
@@ -2075,35 +2215,35 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2113,67 +2253,79 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,58 +2572,60 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>15400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>18900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>21400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
@@ -2459,40 +2633,46 @@
       <c r="U41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>500</v>
+      </c>
+      <c r="W41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2600</v>
       </c>
       <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M42" s="3">
+        <v>1700</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2500,11 +2680,11 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2518,44 +2698,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F43" s="3">
         <v>33300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>30900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>35400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>41200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>47900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>54600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>24700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>13300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2569,34 +2755,40 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,15 +2798,15 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>7600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2627,58 +2819,64 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
       </c>
       <c r="J45" s="3">
+        <v>800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2687,107 +2885,119 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F46" s="3">
         <v>46000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>47200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>55100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>64200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>66000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>70200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>32300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>11700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>2000</v>
       </c>
       <c r="N47" s="3">
         <v>2000</v>
@@ -2798,11 +3008,11 @@
       <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R47" s="3">
+        <v>2000</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -2813,38 +3023,44 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2858,81 +3074,93 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F49" s="3">
         <v>15900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>15300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>15700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>16100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>16100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>9300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>11100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>11300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>11500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>11700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,16 +3283,22 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3069,11 +3309,11 @@
       <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>400</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -3087,11 +3327,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3099,8 +3339,8 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>64400</v>
+      </c>
+      <c r="F54" s="3">
         <v>67000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>69500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>78300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>86200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>86400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>81800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>44300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>23700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>13200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>13300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>35900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>42300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>37600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>35900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,10 +3608,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3376,57 +3644,63 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F59" s="3">
         <v>45900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>45400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>21000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>25400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>30200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3435,81 +3709,93 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F60" s="3">
         <v>47400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>46700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>56900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>67700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>68500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>66100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>42500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>24100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>10600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,38 +3853,44 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3608,11 +3900,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F66" s="3">
         <v>50100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>50700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>61300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>70600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>69900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>67200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>43700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-75700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-72500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-73800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-75300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-74700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-76900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-90500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-85700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-77900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-70300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-68600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-67800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-65800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-64600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-63600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-62900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F76" s="3">
         <v>16900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>16500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>14600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,7 +5028,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -4639,16 +5037,16 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-300</v>
       </c>
       <c r="U89" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5075,19 +5517,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5095,29 +5537,35 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T100" s="3">
-        <v>1300</v>
       </c>
       <c r="U100" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W100" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-400</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>28500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>37500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>67500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
@@ -822,59 +826,62 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>14300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,59 +894,62 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,32 +990,33 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1024,26 +1038,29 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,26 +1124,29 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1148,23 +1168,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,10 +1204,10 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1196,13 +1219,13 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,124 +1285,128 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>58800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,58 +1447,59 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>100</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1479,59 +1513,62 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,16 +1581,19 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1561,11 +1601,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1576,11 +1616,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1595,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,58 +2261,61 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>-100</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,109 +2660,113 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E42" s="3">
         <v>1100</v>
       </c>
       <c r="F42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G42" s="3">
         <v>500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1700</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,47 +2794,50 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E43" s="3">
         <v>15000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2761,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2780,17 +2876,17 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2804,12 +2900,12 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>7600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2825,8 +2921,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -2834,28 +2930,31 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
@@ -2864,22 +2963,22 @@
         <v>800</v>
       </c>
       <c r="L45" s="3">
+        <v>800</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2891,7 +2990,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -2899,108 +2998,114 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E46" s="3">
         <v>35500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>55100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>64200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>66000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
-      </c>
-      <c r="N47" s="3">
-        <v>2000</v>
       </c>
       <c r="O47" s="3">
         <v>2000</v>
@@ -3014,8 +3119,8 @@
       <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>2000</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3029,40 +3134,43 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3080,87 +3188,93 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>800</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E49" s="3">
         <v>15200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>16100</v>
       </c>
       <c r="J49" s="3">
         <v>16100</v>
       </c>
       <c r="K49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="L49" s="3">
         <v>9300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,19 +3406,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
         <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -3315,8 +3435,8 @@
       <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>400</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -3333,8 +3453,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3345,17 +3465,20 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E54" s="3">
         <v>56900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>64400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>78300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>86200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>86400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>13200</v>
       </c>
       <c r="S54" s="3">
         <v>13200</v>
       </c>
       <c r="T54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="U54" s="3">
         <v>13500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>35900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>42300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1200</v>
       </c>
       <c r="S57" s="3">
         <v>1200</v>
       </c>
       <c r="T57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3650,60 +3784,63 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>5400</v>
       </c>
       <c r="U58" s="3">
         <v>5400</v>
       </c>
       <c r="V58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="W58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E59" s="3">
         <v>35700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>37100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3715,87 +3852,93 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E60" s="3">
         <v>38100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>41200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>46700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>68500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>66100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>42500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>24100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,41 +4002,44 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E66" s="3">
         <v>40400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>61300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>70600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>69900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-74100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-75700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-75300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-90500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-77900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-68600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-67200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-65800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-64600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-63600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-62900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
         <v>16500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>11700</v>
       </c>
       <c r="R76" s="3">
         <v>11700</v>
       </c>
       <c r="S76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="T76" s="3">
         <v>11500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,10 +5227,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -5043,13 +5242,13 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-700</v>
       </c>
       <c r="Q89" s="3">
         <v>-700</v>
       </c>
       <c r="R89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5523,17 +5744,17 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5543,29 +5764,32 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,14 +5933,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5718,49 +5948,52 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-300</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
       </c>
       <c r="K101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,161 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>28500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>37500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>67500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,62 +832,65 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>14300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>1900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,62 +903,65 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>27100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,24 +1015,24 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,26 +1054,29 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,29 +1143,32 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-3500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1162,8 +1181,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1171,23 +1190,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,10 +1229,10 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -1222,13 +1244,13 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,130 +1311,134 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>58800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,61 +1480,62 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="T20" s="3">
+        <v>100</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
@@ -1516,62 +1549,65 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1634,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1604,11 +1643,11 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1619,11 +1658,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1638,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,61 +2330,64 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>-100</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="T32" s="3">
+        <v>-100</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,115 +2746,119 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1100</v>
       </c>
       <c r="F42" s="3">
         <v>1100</v>
       </c>
       <c r="G42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H42" s="3">
         <v>500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2779,8 +2868,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2797,50 +2886,53 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E43" s="3">
         <v>12300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2857,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2879,17 +2974,17 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2903,12 +2998,12 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>7600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2924,8 +3019,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -2933,31 +3028,34 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>800</v>
@@ -2966,22 +3064,22 @@
         <v>800</v>
       </c>
       <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2993,7 +3091,7 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3001,114 +3099,120 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E46" s="3">
         <v>30900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>47200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>55100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>64200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2000</v>
       </c>
       <c r="P47" s="3">
         <v>2000</v>
@@ -3122,8 +3226,8 @@
       <c r="S47" s="3">
         <v>2000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>2000</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3137,43 +3241,46 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1800</v>
       </c>
       <c r="M48" s="3">
         <v>1800</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3191,90 +3298,96 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>800</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E49" s="3">
         <v>14800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>16100</v>
       </c>
       <c r="K49" s="3">
         <v>16100</v>
       </c>
       <c r="L49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="M49" s="3">
         <v>9300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,22 +3525,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2600</v>
       </c>
       <c r="F52" s="3">
         <v>2600</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -3438,8 +3557,8 @@
       <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>400</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3456,8 +3575,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3468,17 +3587,20 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E54" s="3">
         <v>51300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>64400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>78300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>86200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13000</v>
-      </c>
-      <c r="S54" s="3">
-        <v>13200</v>
       </c>
       <c r="T54" s="3">
         <v>13200</v>
       </c>
       <c r="U54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="V54" s="3">
         <v>13500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>35900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>42300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1200</v>
       </c>
       <c r="T57" s="3">
         <v>1200</v>
       </c>
       <c r="U57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3751,7 +3884,7 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3787,63 +3920,66 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>5400</v>
       </c>
       <c r="V58" s="3">
         <v>5400</v>
       </c>
       <c r="W58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="X58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E59" s="3">
         <v>36700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>25400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>35700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3855,90 +3991,96 @@
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>300</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E60" s="3">
         <v>37300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>38100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>46700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>24100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,44 +4147,47 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E66" s="3">
         <v>38900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>40400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>61300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>70600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>69900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-81100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-75700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-75300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-90500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-85700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-77900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-67800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-67200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-65800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-64600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-63600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-62900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E76" s="3">
         <v>12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>11700</v>
       </c>
       <c r="S76" s="3">
         <v>11700</v>
       </c>
       <c r="T76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="U76" s="3">
         <v>11500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,10 +5428,10 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>400</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -5245,13 +5443,13 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-700</v>
       </c>
       <c r="R89" s="3">
         <v>-700</v>
       </c>
       <c r="S89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5747,17 +5967,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5767,29 +5987,32 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5936,14 +6165,14 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5951,49 +6180,52 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-800</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>-100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-300</v>
       </c>
       <c r="K101" s="3">
         <v>-300</v>
       </c>
       <c r="L101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>28500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>37500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>67500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
@@ -835,65 +839,68 @@
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,65 +913,68 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,24 +1032,24 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1057,26 +1071,29 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,32 +1163,35 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1184,8 +1204,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1193,23 +1213,23 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1217,13 +1237,16 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
@@ -1232,10 +1255,10 @@
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1247,13 +1270,13 @@
         <v>400</v>
       </c>
       <c r="L15" s="3">
+        <v>400</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,136 +1338,140 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,64 +1514,65 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>100</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
@@ -1552,65 +1586,68 @@
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,8 +1677,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1646,11 +1686,11 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1661,11 +1701,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1680,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,64 +2400,67 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>-100</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>-100</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,121 +2833,125 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>23400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="3">
         <v>1100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1100</v>
       </c>
       <c r="G42" s="3">
         <v>1100</v>
       </c>
       <c r="H42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I42" s="3">
         <v>500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2871,8 +2961,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2889,53 +2979,56 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
         <v>11400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>47900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
@@ -2952,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2977,17 +3073,17 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -3001,12 +3097,12 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>7600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3022,8 +3118,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3031,34 +3127,37 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
@@ -3067,22 +3166,22 @@
         <v>800</v>
       </c>
       <c r="N45" s="3">
+        <v>800</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3094,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3102,120 +3201,126 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E46" s="3">
         <v>23100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>46000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>47200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>55100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>64200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2000</v>
       </c>
       <c r="Q47" s="3">
         <v>2000</v>
@@ -3229,8 +3334,8 @@
       <c r="T47" s="3">
         <v>2000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>2000</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3244,46 +3349,49 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1800</v>
       </c>
       <c r="N48" s="3">
         <v>1800</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3301,93 +3409,99 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>800</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E49" s="3">
         <v>14500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>16100</v>
       </c>
       <c r="L49" s="3">
         <v>16100</v>
       </c>
       <c r="M49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="N49" s="3">
         <v>9300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,25 +3645,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2600</v>
       </c>
       <c r="G52" s="3">
         <v>2600</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3560,8 +3680,8 @@
       <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>400</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -3578,8 +3698,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3590,17 +3710,20 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E54" s="3">
         <v>43000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>64400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>67000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>78300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13000</v>
-      </c>
-      <c r="T54" s="3">
-        <v>13200</v>
       </c>
       <c r="U54" s="3">
         <v>13200</v>
       </c>
       <c r="V54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="W54" s="3">
         <v>13500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1200</v>
       </c>
       <c r="U57" s="3">
         <v>1200</v>
       </c>
       <c r="V57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3887,7 +4021,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3923,66 +4057,69 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>5400</v>
       </c>
       <c r="W58" s="3">
         <v>5400</v>
       </c>
       <c r="X58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="Y58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E59" s="3">
         <v>31700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>37100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>35700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
@@ -3994,93 +4131,99 @@
         <v>300</v>
       </c>
       <c r="U59" s="3">
+        <v>300</v>
+      </c>
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E60" s="3">
         <v>32500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>37300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>38100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>41200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>46700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>68500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>42500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>24100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,47 +4293,50 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4203,8 +4349,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E66" s="3">
         <v>33500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>40400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>61300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>69900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>67200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-75700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-75300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-74700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-90500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-85700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-77900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-70300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-68600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-67800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-67200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-65800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-64600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-63600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-62900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
         <v>9500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>11700</v>
       </c>
       <c r="T76" s="3">
         <v>11700</v>
       </c>
       <c r="U76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="V76" s="3">
         <v>11500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -5431,10 +5630,10 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -5446,13 +5645,13 @@
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-700</v>
       </c>
       <c r="S89" s="3">
         <v>-700</v>
       </c>
       <c r="T89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,13 +6160,14 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5970,17 +6191,17 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5990,29 +6211,32 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,13 +6380,16 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6168,14 +6398,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6183,49 +6413,52 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-300</v>
       </c>
       <c r="L101" s="3">
         <v>-300</v>
       </c>
       <c r="M101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,175 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>67500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
@@ -842,68 +846,71 @@
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,68 +923,71 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,13 +1031,14 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1035,24 +1049,24 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1074,26 +1088,29 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,35 +1183,38 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>2600</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1207,8 +1227,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1216,23 +1236,23 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1240,16 +1260,19 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
@@ -1258,10 +1281,10 @@
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
@@ -1273,13 +1296,13 @@
         <v>400</v>
       </c>
       <c r="M15" s="3">
+        <v>400</v>
+      </c>
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,142 +1365,146 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9300</v>
+        <v>5200</v>
       </c>
       <c r="E17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>600</v>
+        <v>-3200</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,67 +1548,68 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="V20" s="3">
+        <v>100</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
@@ -1589,68 +1623,71 @@
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-2800</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1680,8 +1720,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1689,11 +1729,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1704,11 +1744,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1723,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
-      </c>
-      <c r="W22" s="3">
-        <v>300</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,67 +2470,70 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
-        <v>-100</v>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+      <c r="V32" s="3">
+        <v>-100</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,127 +2920,131 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>900</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1100</v>
       </c>
       <c r="H42" s="3">
         <v>1100</v>
       </c>
       <c r="I42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,56 +3072,59 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4900</v>
+        <v>3500</v>
       </c>
       <c r="E43" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F43" s="3">
         <v>11400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>47900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
@@ -3048,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3076,17 +3172,17 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -3100,12 +3196,12 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
         <v>7600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3121,8 +3217,8 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3130,37 +3226,40 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>800</v>
@@ -3169,22 +3268,22 @@
         <v>800</v>
       </c>
       <c r="O45" s="3">
+        <v>800</v>
+      </c>
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3196,7 +3295,7 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3204,126 +3303,132 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>24900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>46000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>47200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>64200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>70200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>800</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>2000</v>
       </c>
       <c r="R47" s="3">
         <v>2000</v>
@@ -3337,8 +3442,8 @@
       <c r="U47" s="3">
         <v>2000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>2000</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3352,49 +3457,52 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1800</v>
       </c>
       <c r="O48" s="3">
         <v>1800</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3412,96 +3520,102 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>800</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E49" s="3">
         <v>7100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>16100</v>
       </c>
       <c r="M49" s="3">
         <v>16100</v>
       </c>
       <c r="N49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="O49" s="3">
         <v>9300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>11500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>11700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2600</v>
       </c>
       <c r="H52" s="3">
         <v>2600</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -3683,8 +3803,8 @@
       <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>400</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3701,8 +3821,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3713,17 +3833,20 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E54" s="3">
         <v>38700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>56900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>64400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>67000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>86400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13000</v>
-      </c>
-      <c r="U54" s="3">
-        <v>13200</v>
       </c>
       <c r="V54" s="3">
         <v>13200</v>
       </c>
       <c r="W54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="X54" s="3">
         <v>13500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,87 +4056,91 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1200</v>
       </c>
       <c r="V57" s="3">
         <v>1200</v>
       </c>
       <c r="W57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -4024,7 +4158,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4060,69 +4194,72 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>5400</v>
       </c>
       <c r="X58" s="3">
         <v>5400</v>
       </c>
       <c r="Y58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="Z58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E59" s="3">
         <v>18300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>37100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>35700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
@@ -4134,96 +4271,102 @@
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E60" s="3">
         <v>19100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>37300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>38100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>41200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>46700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>68500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>66100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>42500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>24100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,50 +4439,53 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19400</v>
+        <v>26800</v>
       </c>
       <c r="E66" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F66" s="3">
         <v>33500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>40400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>69900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-85500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-74100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-75700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-72500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-74700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-90500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-85700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-77900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-70300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-68600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-67800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-67200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-65800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-64600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-63600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-62900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>8900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14200</v>
-      </c>
-      <c r="T76" s="3">
-        <v>11700</v>
       </c>
       <c r="U76" s="3">
         <v>11700</v>
       </c>
       <c r="V76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="W76" s="3">
         <v>11500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,16 +5813,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -5633,10 +5832,10 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
@@ -5648,13 +5847,13 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-700</v>
       </c>
       <c r="T89" s="3">
         <v>-700</v>
       </c>
       <c r="U89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,17 +6381,18 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -6194,17 +6415,17 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6214,29 +6435,32 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,17 +6610,20 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -6401,14 +6631,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6416,49 +6646,52 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-800</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6790,217 +7036,226 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-300</v>
       </c>
       <c r="M101" s="3">
         <v>-300</v>
       </c>
       <c r="N101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,188 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
-      </c>
       <c r="H8" s="3">
-        <v>2700</v>
+        <v>5300</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K8" s="3">
         <v>19300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>28500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>25100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>37500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>67500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,74 +856,80 @@
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
       <c r="H9" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K9" s="3">
         <v>14300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>16500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>15500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>22600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>40400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
         <v>1900</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,74 +939,80 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8500</v>
       </c>
-      <c r="F10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P10" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>27100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>12000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>14900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>27100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,19 +1057,21 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1052,27 +1079,27 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1091,26 +1118,32 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,41 +1219,47 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>7100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-3500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1230,67 +1269,73 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
@@ -1299,16 +1344,16 @@
         <v>400</v>
       </c>
       <c r="N15" s="3">
+        <v>400</v>
+      </c>
+      <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,151 +1417,159 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K17" s="3">
         <v>17700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>27100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>26100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>35200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>58800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>9200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4500</v>
-      </c>
       <c r="H18" s="3">
-        <v>-2900</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-7100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-7400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1520,8 +1579,14 @@
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,37 +1614,39 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
@@ -1588,35 +1655,35 @@
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1626,74 +1693,80 @@
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H21" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-7300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1776,14 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,23 +1802,23 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1747,14 +1826,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1766,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
-      </c>
-      <c r="X22" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>300</v>
       </c>
       <c r="Z22" s="3">
         <v>300</v>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2800</v>
+        <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-2800</v>
+        <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2800</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>8600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,37 +2606,43 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
@@ -2512,35 +2651,35 @@
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2550,85 +2689,97 @@
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H33" s="3">
-        <v>-2800</v>
+        <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>8600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H35" s="3">
-        <v>-2800</v>
+        <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>8600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,76 +3092,78 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>9800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>15900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>13000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Z41" s="3">
         <v>500</v>
@@ -2998,58 +3171,64 @@
       <c r="AA41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="3">
         <v>2400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>900</v>
       </c>
       <c r="H42" s="3">
         <v>1100</v>
       </c>
       <c r="I42" s="3">
+        <v>900</v>
+      </c>
+      <c r="J42" s="3">
         <v>1100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1400</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2600</v>
       </c>
       <c r="Q42" s="3">
         <v>1700</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
+      <c r="R42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S42" s="3">
+        <v>1700</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
@@ -3057,11 +3236,11 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3075,62 +3254,68 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>16000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>11400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>15000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>15700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>30900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>35400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>41200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>47900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>54600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>24700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>13300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
@@ -3144,52 +3329,58 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3199,15 +3390,15 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
         <v>7600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3220,76 +3411,82 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
       </c>
       <c r="P45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3298,143 +3495,155 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>24900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>23100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>30900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>35500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>41200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>46000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>47200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>55100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>64200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>66000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>70200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>32300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>18800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>11700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2900</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>400</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>800</v>
-      </c>
-      <c r="R47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>2000</v>
       </c>
       <c r="T47" s="3">
         <v>2000</v>
@@ -3445,11 +3654,11 @@
       <c r="V47" s="3">
         <v>2000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X47" s="3">
+        <v>2000</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
@@ -3460,56 +3669,62 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
@@ -3523,99 +3738,111 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>800</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F49" s="3">
         <v>6900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>14500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>14800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>15500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>15700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>16100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>9300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>9500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>10000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>10200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>10400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>10600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>10800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>11100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>11300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>11500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>11700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,34 +4001,40 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F52" s="3">
         <v>11700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3806,11 +4045,11 @@
       <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
+        <v>400</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3824,11 +4063,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3836,8 +4075,8 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F54" s="3">
         <v>32000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>38700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>43000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>51300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>56900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>64400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>67000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>69500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>78300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>86200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>86400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>81800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>44300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>29400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>23700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>14100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>15300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>13200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>13200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>13500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>13300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>13100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,96 +4316,104 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>35900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>42300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>37600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>35900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -4161,10 +4428,10 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4197,75 +4464,81 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F59" s="3">
         <v>14500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>18300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>31700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>36700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>35700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>37100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>45900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>45400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>21000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>25400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>30900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>30200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>35700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>19500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>9300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
@@ -4274,107 +4547,119 @@
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>300</v>
+      </c>
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F60" s="3">
         <v>16200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>32500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>37300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>38100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>41200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>47400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>46700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>56900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>67700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>68500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>66100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>42500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>24100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>10400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>10600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>11400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4442,56 +4727,62 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>4100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4501,11 +4792,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F66" s="3">
         <v>26800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>29800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>33500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>38900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>40400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>45300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>50100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>50700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>61300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>70600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>69900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>67200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>43700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>24100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>12600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>10400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>10600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>11400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-88800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-85500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-84100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-81100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-76900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-74100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-75700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-72500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-73800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-75300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-74700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-76900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-90500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-85700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-77900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-70300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-68600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-67800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-67200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-65800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-64600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-63600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-62900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>12400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>16500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>19100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>18800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>15600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>14200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4200</v>
-      </c>
       <c r="H81" s="3">
-        <v>-2800</v>
+        <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>8600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,25 +6220,25 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
@@ -5850,16 +6247,16 @@
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-6000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-2100</v>
+        <v>-2700</v>
       </c>
       <c r="H89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>7700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>9800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-300</v>
       </c>
       <c r="AA89" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,14 +6832,14 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6418,19 +6859,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-200</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -6438,29 +6879,35 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-800</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-800</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>17100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>17800</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>800</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>1300</v>
       </c>
       <c r="AA100" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>10100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
-      </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-400</v>
       </c>
       <c r="X102" s="3">
         <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,202 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>19300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>28500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>25100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>37500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>67500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>2000</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
@@ -862,80 +870,86 @@
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>14300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>16500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>15500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>22600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>40400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1900</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
@@ -945,80 +959,86 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>12000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>14900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>27100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,53 +1085,55 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1124,26 +1152,32 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>500</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,47 +1259,53 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>7100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-3500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1275,41 +1315,47 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,31 +1363,31 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
@@ -1350,16 +1396,16 @@
         <v>400</v>
       </c>
       <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,163 +1471,171 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>26100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>35200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>58800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>8700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-7100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-7400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1585,8 +1645,14 @@
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,43 +1682,45 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>300</v>
@@ -1661,35 +1729,35 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1699,80 +1767,86 @@
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-4600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1782,8 +1856,14 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1808,23 +1888,23 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1832,14 +1912,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1851,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>300</v>
       </c>
       <c r="AB22" s="3">
         <v>300</v>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>8600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>8600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,43 +2746,49 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-300</v>
@@ -2657,35 +2797,35 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2695,91 +2835,103 @@
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>8600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>8600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,82 +3266,84 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>15900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>23400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>18900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>13000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
-      </c>
-      <c r="W41" s="3">
-        <v>200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>300</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
         <v>500</v>
@@ -3177,64 +3351,70 @@
       <c r="AC41" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>1500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>900</v>
       </c>
       <c r="J42" s="3">
         <v>1100</v>
       </c>
       <c r="K42" s="3">
+        <v>900</v>
+      </c>
+      <c r="L42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R42" s="3">
-        <v>2600</v>
       </c>
       <c r="S42" s="3">
         <v>1700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
+      <c r="T42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U42" s="3">
+        <v>1700</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
@@ -3242,11 +3422,11 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3260,68 +3440,74 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>16000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>11400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>12300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>15000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>15700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>33300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>30900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>35400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>41200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>47900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>54600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>24700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>13300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
@@ -3335,16 +3521,22 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3369,24 +3561,24 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3396,15 +3588,15 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
         <v>7600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3417,82 +3609,88 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0</v>
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>800</v>
       </c>
       <c r="Q45" s="3">
         <v>800</v>
       </c>
       <c r="R45" s="3">
+        <v>800</v>
+      </c>
+      <c r="S45" s="3">
+        <v>800</v>
+      </c>
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3501,99 +3699,111 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>24900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>23100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>30900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>35500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>41200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>46000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>47200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>55100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>64200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>66000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>70200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>32300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>18800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>11700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2900</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
       <c r="Z46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3606,50 +3816,50 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>800</v>
-      </c>
-      <c r="T47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U47" s="3">
-        <v>2000</v>
       </c>
       <c r="V47" s="3">
         <v>2000</v>
@@ -3660,11 +3870,11 @@
       <c r="X47" s="3">
         <v>2000</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
+      <c r="Y47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>2000</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
@@ -3675,62 +3885,68 @@
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3744,105 +3960,117 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>800</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E49" s="3">
         <v>6700</v>
       </c>
       <c r="F49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H49" s="3">
         <v>6900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>14500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>14800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>15900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>15300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>15700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>16100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>16100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>9700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>10000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>10200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>10400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>10600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>10800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>11100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>11300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>11500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>11700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,40 +4241,46 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F52" s="3">
         <v>36400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>20100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>11700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
@@ -4051,11 +4291,11 @@
       <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
+        <v>400</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -4069,11 +4309,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -4081,8 +4321,8 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
+      <c r="AA52" s="3">
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F54" s="3">
         <v>53100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>37600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>38700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>43000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>51300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>56900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>64400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>67000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>69500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>78300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>86200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>86400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>81800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>44300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>29400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>23700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>14100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>15300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>13000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>13200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>13200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>13500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>13300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>13100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,108 +4578,116 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>35900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>42300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>37600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>35900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>1100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>10600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -4434,10 +4702,10 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4470,81 +4738,87 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>5400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>5400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>5500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F59" s="3">
         <v>13300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>15300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>14500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>18300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>31700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>36700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>35700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>37100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>45900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>45400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>21000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>25400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>30900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>30200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>35700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>19500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>9300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
@@ -4553,120 +4827,132 @@
         <v>300</v>
       </c>
       <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>4800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F60" s="3">
         <v>25000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>32500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>37300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>38100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>41200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>47400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>46700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>56900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>67700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>68500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>66100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>42500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>24100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>12600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>10400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>10600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>11400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>8200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4733,62 +5019,68 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>4100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4798,11 +5090,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F66" s="3">
         <v>51700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>34400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>26800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>29800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>33500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>38900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>40400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>45300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>50100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>50700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>61300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>70600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>69900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>67200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>43700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>24100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>12600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>10400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>10600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>11400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-93300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-91000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-88800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-85500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-84100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-81100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-76900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-74100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-75700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-72500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-73800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-75300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-74700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-76900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-90500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-85700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-77900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-70300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-68600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-67800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-67200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-65800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-64600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-63600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-62900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>12400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>19100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>16900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>18800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>16500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>14200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>11700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>11500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>8600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6226,25 +6624,25 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
@@ -6253,16 +6651,16 @@
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>9800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-300</v>
       </c>
       <c r="AC89" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6838,14 +7280,14 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6865,19 +7307,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-200</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -6885,29 +7327,35 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-800</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-16600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-8300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-800</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F100" s="3">
         <v>17100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>17800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>800</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>1300</v>
       </c>
       <c r="AC100" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7610,161 +8108,173 @@
         <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>10100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-400</v>
       </c>
       <c r="Z102" s="3">
         <v>100</v>
       </c>
       <c r="AA102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="AB102" s="3">
         <v>100</v>
       </c>
       <c r="AC102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGTK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>PGTK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,74 +800,74 @@
         <v>1200</v>
       </c>
       <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>37500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>67500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2000</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,83 +880,86 @@
       <c r="AE8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1900</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,83 +972,86 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,16 +1100,17 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1104,11 +1118,11 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -1116,27 +1130,27 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1158,26 +1172,29 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>500</v>
       </c>
-      <c r="AD12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,50 +1282,53 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-12100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>7100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-3500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1321,8 +1341,8 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1330,23 +1350,23 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1378,7 +1401,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1387,10 +1410,10 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
@@ -1402,13 +1425,13 @@
         <v>400</v>
       </c>
       <c r="R15" s="3">
+        <v>400</v>
+      </c>
+      <c r="S15" s="3">
         <v>300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>500</v>
-      </c>
-      <c r="T15" s="3">
-        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,172 +1499,176 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>-3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4700</v>
       </c>
       <c r="L17" s="3">
         <v>4700</v>
       </c>
       <c r="M17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N17" s="3">
         <v>17700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>35200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>58800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,82 +1717,83 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="3">
-        <v>100</v>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
+      <c r="AA20" s="3">
+        <v>100</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>4</v>
@@ -1773,83 +1807,86 @@
       <c r="AE20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,8 +1934,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1903,11 +1943,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1918,11 +1958,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1937,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>300</v>
       </c>
       <c r="AC22" s="3">
         <v>300</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2200</v>
       </c>
       <c r="G27" s="3">
         <v>-2200</v>
       </c>
       <c r="H27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,82 +2819,85 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
+      <c r="AA32" s="3">
+        <v>-100</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>4</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2200</v>
       </c>
       <c r="G33" s="3">
         <v>-2200</v>
       </c>
       <c r="H33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2200</v>
       </c>
       <c r="G35" s="3">
         <v>-2200</v>
       </c>
       <c r="H35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3366,59 +3456,59 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42" s="3">
+        <v>100</v>
+      </c>
+      <c r="H42" s="3">
         <v>1500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>900</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1100</v>
       </c>
       <c r="M42" s="3">
         <v>1100</v>
       </c>
       <c r="N42" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O42" s="3">
         <v>500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1700</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3428,8 +3518,8 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3446,71 +3536,74 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>35400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>41200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>47900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>13300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
@@ -3527,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="3">
         <v>100</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3567,20 +3663,20 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>100</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -3594,12 +3690,12 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3">
         <v>7600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3615,8 +3711,8 @@
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC44" s="3">
-        <v>0</v>
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD44" s="3">
         <v>0</v>
@@ -3624,52 +3720,55 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>800</v>
       </c>
       <c r="R45" s="3">
         <v>800</v>
@@ -3678,22 +3777,22 @@
         <v>800</v>
       </c>
       <c r="T45" s="3">
+        <v>800</v>
+      </c>
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3705,7 +3804,7 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
@@ -3713,97 +3812,103 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E46" s="3">
         <v>11500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>55100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>64200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>66000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>70200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>32300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3822,47 +3927,47 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>800</v>
-      </c>
-      <c r="V47" s="3">
-        <v>2000</v>
       </c>
       <c r="W47" s="3">
         <v>2000</v>
@@ -3876,8 +3981,8 @@
       <c r="Z47" s="3">
         <v>2000</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
+      <c r="AA47" s="3">
+        <v>2000</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
@@ -3891,64 +3996,67 @@
       <c r="AE47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1800</v>
       </c>
       <c r="T48" s="3">
         <v>1800</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3966,111 +4074,117 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
         <v>1900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>800</v>
       </c>
-      <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E49" s="3">
         <v>6500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>16100</v>
       </c>
       <c r="R49" s="3">
         <v>16100</v>
       </c>
       <c r="S49" s="3">
+        <v>16100</v>
+      </c>
+      <c r="T49" s="3">
         <v>9300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>10800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>11100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>11300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>11500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>11700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,43 +4364,46 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2600</v>
       </c>
       <c r="M52" s="3">
         <v>2600</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>2600</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -4297,8 +4417,8 @@
       <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>400</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -4315,8 +4435,8 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4327,17 +4447,20 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>51300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>56900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>69500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>81800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>44300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>29400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13000</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>13200</v>
       </c>
       <c r="AA54" s="3">
         <v>13200</v>
       </c>
       <c r="AB54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="AC54" s="3">
         <v>13500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>13100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,117 +4710,121 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
       </c>
       <c r="G57" s="3">
         <v>1200</v>
       </c>
       <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>42300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1200</v>
       </c>
       <c r="AA57" s="3">
         <v>1200</v>
       </c>
       <c r="AB57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4708,7 +4842,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4744,84 +4878,87 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>100</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>5400</v>
       </c>
       <c r="AC58" s="3">
         <v>5400</v>
       </c>
       <c r="AD58" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="AE58" s="3">
         <v>5500</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E59" s="3">
         <v>13000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>45400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>25400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>35700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>19500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9300</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
@@ -4833,111 +4970,117 @@
         <v>300</v>
       </c>
       <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>15800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>25000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>32500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>67700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>68500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>66100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>24100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>11400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4948,14 +5091,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>8200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -5025,65 +5168,68 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>15700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>51700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>70600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>69900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>10400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>10600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>-93700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-96800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-93300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-88800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-85500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-84100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-81100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-74100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-75700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-72500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-73800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-75300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-74700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-90500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-85700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-77900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-70300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-68600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-67800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-67200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-65800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-64600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-63600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-62900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-61600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>11700</v>
       </c>
       <c r="Z76" s="3">
         <v>11700</v>
       </c>
       <c r="AA76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="AB76" s="3">
         <v>11500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2200</v>
       </c>
       <c r="G81" s="3">
         <v>-2200</v>
       </c>
       <c r="H81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6630,10 +6829,10 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
@@ -6642,10 +6841,10 @@
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
@@ -6657,13 +6856,13 @@
         <v>400</v>
       </c>
       <c r="R83" s="3">
+        <v>400</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-700</v>
       </c>
       <c r="Y89" s="3">
         <v>-700</v>
       </c>
       <c r="Z89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7286,11 +7507,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -7313,17 +7534,17 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7333,29 +7554,32 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-800</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,32 +7759,35 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
         <v>6300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -7565,14 +7795,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7580,49 +7810,52 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-4000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-800</v>
       </c>
-      <c r="AE94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>6700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>200</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>100</v>
       </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-300</v>
       </c>
       <c r="R101" s="3">
         <v>-300</v>
       </c>
       <c r="S101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-600</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-100</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>7000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>200</v>
       </c>
     </row>
